--- a/src/main/resources/xlsx/pcs/wy-3-1_1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-3-1_1.xlsx
@@ -89,9 +89,6 @@
       <t>`</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>征求意见
@@ -147,24 +144,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">title候选人初步人选推荐提名表
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（“stage”阶段，党支部用）</t>
-    </r>
+    <t>title候选人初步人选推荐提名表
+（“stage”阶段，党支部用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明：type候选人初步人选按照姓氏笔画排序。将type候选人初步人选名单在党支部全体党员中征求意见，赞成的在“征求意见情况”栏划“○”，不赞成的划“×”，弃权的什么也不划。如另选他人，填入“另选他人姓名”栏内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type候选人初步人选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +222,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="华文中宋"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -781,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,7 +781,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -828,7 +810,7 @@
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -841,12 +823,12 @@
       <c r="J3" s="31"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -855,13 +837,13 @@
       <c r="G4" s="28"/>
       <c r="H4" s="29"/>
       <c r="I4" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -887,7 +869,7 @@
       <c r="I5" s="23"/>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -920,7 +902,7 @@
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>

--- a/src/main/resources/xlsx/pcs/wy-3-1_1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-3-1_1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01CC03E-A390-4365-9406-2A42FF3123FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党委委员" sheetId="1" r:id="rId1"/>
@@ -96,54 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2017年</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  10  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">日    </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title候选人初步人选推荐提名表
 （“stage”阶段，党支部用）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,13 +107,17 @@
   </si>
   <si>
     <t>type候选人初步人选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年   月   日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
@@ -760,11 +717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I8"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -781,7 +738,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -810,7 +767,7 @@
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -828,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -902,7 +859,7 @@
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>

--- a/src/main/resources/xlsx/pcs/wy-3-1_1.xlsx
+++ b/src/main/resources/xlsx/pcs/wy-3-1_1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01CC03E-A390-4365-9406-2A42FF3123FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="党委委员" sheetId="1" r:id="rId1"/>
@@ -41,10 +40,6 @@
   </si>
   <si>
     <t>入党时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在单位及职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,11 +108,15 @@
     <t>年   月   日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
@@ -717,11 +716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -738,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -752,7 +751,7 @@
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -767,7 +766,7 @@
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -785,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -794,10 +793,10 @@
       <c r="G4" s="28"/>
       <c r="H4" s="29"/>
       <c r="I4" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
@@ -812,16 +811,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="25"/>
@@ -846,7 +845,7 @@
     </row>
     <row r="8" spans="1:11" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -859,7 +858,7 @@
     </row>
     <row r="9" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
